--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3757.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3757.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.247038834318803</v>
+        <v>0.3552769422531128</v>
       </c>
       <c r="B1">
-        <v>2.523457329980464</v>
+        <v>0.9985016584396362</v>
       </c>
       <c r="C1">
-        <v>4.075460886109527</v>
+        <v>4.787903785705566</v>
       </c>
       <c r="D1">
-        <v>3.556136587779282</v>
+        <v>1.998209118843079</v>
       </c>
       <c r="E1">
-        <v>1.155471889930402</v>
+        <v>0.8601756691932678</v>
       </c>
     </row>
   </sheetData>
